--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -211,9 +211,6 @@
     <t>Set Variable</t>
   </si>
   <si>
-    <t>gaurav.khanna@hcentive.com</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -1475,12 +1472,15 @@
   </si>
   <si>
     <t>sdfklsdjlfkds</t>
+  </si>
+  <si>
+    <t>gaurav.khanna@dummy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1799,6 +1799,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1834,6 +1851,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2036,81 +2070,81 @@
         <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="C3" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="C6" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -2122,7 +2156,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8" s="15"/>
     </row>
@@ -2131,10 +2165,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="15"/>
     </row>
@@ -2146,7 +2180,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D10" s="15"/>
     </row>
@@ -2158,7 +2192,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="15"/>
     </row>
@@ -2170,7 +2204,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" s="15"/>
     </row>
@@ -2179,10 +2213,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="15"/>
     </row>
@@ -2194,7 +2228,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="15"/>
     </row>
@@ -2206,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D15" s="15"/>
     </row>
@@ -2218,7 +2252,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D16" s="15"/>
     </row>
@@ -2230,19 +2264,19 @@
         <v>51</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="C18" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D18" s="15"/>
     </row>
@@ -2254,43 +2288,43 @@
         <v>57</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>407</v>
-      </c>
       <c r="C21" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>161</v>
-      </c>
       <c r="C22" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D22" s="15"/>
     </row>
@@ -2302,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D23" s="15"/>
     </row>
@@ -2311,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D24" s="15"/>
     </row>
@@ -2326,19 +2360,19 @@
         <v>55</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="C26" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D26" s="15"/>
     </row>
@@ -2347,22 +2381,22 @@
         <v>43</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D28" s="15"/>
     </row>
@@ -2371,10 +2405,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D29" s="15"/>
     </row>
@@ -2383,10 +2417,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D30" s="15"/>
     </row>
@@ -2395,10 +2429,10 @@
         <v>39</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D31" s="15"/>
     </row>
@@ -2410,7 +2444,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D32" s="15"/>
     </row>
@@ -2419,10 +2453,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="15"/>
     </row>
@@ -2431,10 +2465,10 @@
         <v>56</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -2443,22 +2477,22 @@
         <v>53</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="C36" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D36" s="15"/>
     </row>
@@ -2470,1415 +2504,1415 @@
         <v>54</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="C38" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="C39" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="C40" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="C41" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="C42" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D42" s="16"/>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="C44" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="C45" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="C46" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="C47" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="C48" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="C49" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>117</v>
-      </c>
       <c r="C50" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="C51" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="C52" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="C53" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>121</v>
-      </c>
       <c r="C54" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="C55" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="C56" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="C57" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="C59" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="C60" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="C61" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>296</v>
-      </c>
       <c r="C62" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>294</v>
-      </c>
       <c r="C63" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="C64" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="C65" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>231</v>
-      </c>
       <c r="C66" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="C67" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B68" s="11" t="s">
-        <v>304</v>
-      </c>
       <c r="C68" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="C69" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="C70" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>220</v>
-      </c>
       <c r="C71" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="C72" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="C73" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>308</v>
-      </c>
       <c r="C74" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="C75" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>306</v>
-      </c>
       <c r="C76" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="C80" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="C81" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>146</v>
-      </c>
       <c r="C82" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D82" s="11"/>
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="C83" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D83" s="11"/>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="C84" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>239</v>
-      </c>
       <c r="C85" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="C86" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="C87" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B88" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="C88" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>315</v>
-      </c>
       <c r="C89" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>267</v>
-      </c>
       <c r="C90" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>269</v>
-      </c>
       <c r="C91" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="C92" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D92" s="11"/>
     </row>
     <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="C93" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D93" s="11"/>
     </row>
     <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="C94" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="C95" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="C96" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="C97" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B98" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="C98" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="C99" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>265</v>
-      </c>
       <c r="C100" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="C101" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D101" s="11"/>
     </row>
     <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>319</v>
-      </c>
       <c r="C102" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D102" s="16"/>
     </row>
     <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>245</v>
-      </c>
       <c r="C103" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D103" s="11"/>
     </row>
     <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>328</v>
-      </c>
       <c r="C104" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="C105" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="C106" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="C107" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D107" s="11"/>
     </row>
     <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>249</v>
-      </c>
       <c r="C108" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D108" s="11"/>
     </row>
     <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="C109" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="11"/>
     </row>
     <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B111" s="11" t="s">
-        <v>324</v>
-      </c>
       <c r="C111" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D111" s="11"/>
     </row>
     <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="C112" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="C113" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="C115" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="C116" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B117" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="C117" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D117" s="11"/>
     </row>
     <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D118" s="16"/>
     </row>
     <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>259</v>
-      </c>
       <c r="C120" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D120" s="16"/>
     </row>
     <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="C121" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>263</v>
-      </c>
       <c r="C122" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="C123" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="C124" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="C125" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="C126" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="C127" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="C128" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="C129" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D129" s="11"/>
     </row>
     <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="C130" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="C131" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="C132" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="C133" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D133" s="11"/>
     </row>
     <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>334</v>
-      </c>
       <c r="C134" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="C135" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="C136" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>300</v>
-      </c>
       <c r="C137" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D137" s="11"/>
     </row>
     <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="C138" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D138" s="11"/>
     </row>
     <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="C139" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="C140" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D140" s="16"/>
     </row>
     <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="C141" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D141" s="16"/>
     </row>
     <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="C142" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D142" s="16"/>
     </row>
     <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D143" s="11"/>
     </row>
     <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D144" s="11"/>
     </row>
     <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B145" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="C145" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D146" s="16"/>
     </row>
     <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="B147" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="C147" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B148" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="C148" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D148" s="16"/>
     </row>
     <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B149" s="11" t="s">
-        <v>255</v>
-      </c>
       <c r="C149" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D149" s="11"/>
     </row>
     <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B150" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="C150" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B151" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="C151" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>332</v>
-      </c>
       <c r="C152" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D152" s="16"/>
     </row>
@@ -3906,7 +3940,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>29</v>
@@ -3914,39 +3948,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -3975,22 +4009,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>13</v>
@@ -4005,13 +4039,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -4056,22 +4090,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -4085,10 +4119,10 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -4106,7 +4140,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4142,7 +4176,7 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>2</v>
@@ -4159,7 +4193,7 @@
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>2</v>
@@ -4176,7 +4210,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>56</v>
@@ -4195,13 +4229,13 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4214,7 +4248,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>25</v>
@@ -4242,10 +4276,10 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -4262,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4290,7 +4324,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>2</v>
@@ -4307,7 +4341,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>19</v>
@@ -4326,7 +4360,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>2</v>
@@ -4343,7 +4377,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>38</v>
@@ -4360,13 +4394,13 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -4379,7 +4413,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
@@ -4396,13 +4430,13 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -4415,7 +4449,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
@@ -4432,13 +4466,13 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4451,7 +4485,7 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>2</v>
@@ -4477,10 +4511,10 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -4508,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -4527,59 +4561,59 @@
         <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
@@ -4599,7 +4633,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -4607,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -4616,7 +4650,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -4624,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4633,28 +4667,28 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -4664,15 +4698,15 @@
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
@@ -4688,7 +4722,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -4701,7 +4735,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -4714,7 +4748,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -4727,7 +4761,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -4740,7 +4774,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -4751,10 +4785,10 @@
     </row>
     <row r="40" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>6</v>
@@ -4772,7 +4806,7 @@
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -4780,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -21183,7 +21217,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>2</v>
@@ -21196,12 +21230,12 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -21221,19 +21255,19 @@
     </row>
     <row r="46" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="E46" s="10">
         <v>5</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G46" s="5">
         <v>5</v>
@@ -21241,54 +21275,54 @@
     </row>
     <row r="47" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
@@ -21302,13 +21336,13 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -21321,13 +21355,13 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -21338,10 +21372,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -21355,13 +21389,13 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -21369,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -21382,13 +21416,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -21397,17 +21431,17 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -21416,11 +21450,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -21433,11 +21467,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>45</v>
@@ -21452,11 +21486,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>2</v>
@@ -21469,11 +21503,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>45</v>
@@ -21488,17 +21522,17 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -21507,36 +21541,36 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>421</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E64" s="10">
         <v>10</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G64" s="5">
         <v>10</v>
@@ -21544,10 +21578,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -21556,31 +21590,31 @@
         <v>0</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -21589,48 +21623,48 @@
         <v>0</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>62</v>
+        <v>483</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>62</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -21639,28 +21673,28 @@
         <v>0</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>6</v>
@@ -21669,48 +21703,48 @@
         <v>0</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>62</v>
+        <v>483</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>442</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>6</v>
@@ -21719,12 +21753,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>44</v>
@@ -21732,10 +21766,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>6</v>
@@ -21744,29 +21778,29 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
@@ -21775,42 +21809,42 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -21821,7 +21855,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -21830,12 +21864,12 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -21858,20 +21892,20 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -21881,14 +21915,14 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -21898,14 +21932,14 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -21915,14 +21949,14 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -21932,14 +21966,14 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -21949,14 +21983,14 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -21966,14 +22000,14 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -21983,14 +22017,14 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -22008,13 +22042,13 @@
     <hyperlink ref="G52" r:id="rId8"/>
     <hyperlink ref="G56" r:id="rId9"/>
     <hyperlink ref="G55" r:id="rId10"/>
-    <hyperlink ref="G69" r:id="rId11"/>
-    <hyperlink ref="E69" r:id="rId12"/>
+    <hyperlink ref="G69" r:id="rId11" display="gaurav.khanna@hcentive.com"/>
+    <hyperlink ref="E69" r:id="rId12" display="gaurav.khanna@hcentive.com"/>
     <hyperlink ref="G65" r:id="rId13"/>
     <hyperlink ref="G67" r:id="rId14"/>
     <hyperlink ref="G70" r:id="rId15"/>
     <hyperlink ref="G72" r:id="rId16"/>
-    <hyperlink ref="E74" r:id="rId17"/>
+    <hyperlink ref="E74" r:id="rId17" display="gaurav.khanna@hcentive.com"/>
     <hyperlink ref="G74" r:id="rId18"/>
     <hyperlink ref="G80" r:id="rId19"/>
   </hyperlinks>
@@ -22025,7 +22059,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[1]$automationKeywords$'!#REF!</xm:f>
+            <xm:f>'C:\Selenium\framework\plugIn\excel\[automationTemplate.xlsm]$automationKeywords$'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F28</xm:sqref>
         </x14:dataValidation>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -10,20 +10,20 @@
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
     <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
     <sheet name="Template" sheetId="20" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
+    <sheet name="TestCases1" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$151</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="480">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1141,12 +1141,6 @@
     <t>Get Alert Text</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
     <t>assertAll</t>
   </si>
   <si>
@@ -1159,9 +1153,6 @@
     <t>file:///C:/Code/Selenium/Raftaar/html/alerts.html</t>
   </si>
   <si>
-    <t>Not working with core framework</t>
-  </si>
-  <si>
     <t>Verify Assert= keyword</t>
   </si>
   <si>
@@ -1249,12 +1240,6 @@
     <t>no description</t>
   </si>
   <si>
-    <t>This is bit tricky. Webdriver don't have any in-build feature to validate this.</t>
-  </si>
-  <si>
-    <t>Will pick this later</t>
-  </si>
-  <si>
     <t>Update Excel Column</t>
   </si>
   <si>
@@ -1475,6 +1460,9 @@
   </si>
   <si>
     <t>gaurav.khanna@dummy.com</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1619,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,17 +1661,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2044,7 +2026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2056,13 +2038,12 @@
     <col min="1" max="1" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="121.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="14"/>
-    <col min="6" max="6" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="14"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
@@ -2072,23 +2053,19 @@
       <c r="C1" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>109</v>
       </c>
@@ -2098,9 +2075,8 @@
       <c r="C3" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>113</v>
       </c>
@@ -2110,9 +2086,8 @@
       <c r="C4" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>117</v>
       </c>
@@ -2122,9 +2097,8 @@
       <c r="C5" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>123</v>
       </c>
@@ -2134,9 +2108,8 @@
       <c r="C6" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>125</v>
       </c>
@@ -2146,9 +2119,8 @@
       <c r="C7" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
@@ -2158,9 +2130,8 @@
       <c r="C8" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>44</v>
       </c>
@@ -2170,9 +2141,8 @@
       <c r="C9" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
@@ -2182,9 +2152,8 @@
       <c r="C10" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
@@ -2194,9 +2163,8 @@
       <c r="C11" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -2206,9 +2174,8 @@
       <c r="C12" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
@@ -2218,9 +2185,8 @@
       <c r="C13" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>42</v>
       </c>
@@ -2230,9 +2196,8 @@
       <c r="C14" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -2242,9 +2207,8 @@
       <c r="C15" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
@@ -2254,9 +2218,8 @@
       <c r="C16" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
@@ -2266,9 +2229,8 @@
       <c r="C17" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>273</v>
       </c>
@@ -2278,9 +2240,8 @@
       <c r="C18" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -2290,9 +2251,8 @@
       <c r="C19" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>157</v>
       </c>
@@ -2302,21 +2262,19 @@
       <c r="C20" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>159</v>
       </c>
@@ -2326,9 +2284,8 @@
       <c r="C22" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>4</v>
       </c>
@@ -2338,9 +2295,8 @@
       <c r="C23" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
@@ -2350,9 +2306,8 @@
       <c r="C24" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>10</v>
       </c>
@@ -2362,9 +2317,8 @@
       <c r="C25" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>164</v>
       </c>
@@ -2374,9 +2328,8 @@
       <c r="C26" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
@@ -2386,9 +2339,8 @@
       <c r="C27" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>215</v>
       </c>
@@ -2398,9 +2350,8 @@
       <c r="C28" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>46</v>
       </c>
@@ -2410,9 +2361,8 @@
       <c r="C29" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
@@ -2422,9 +2372,8 @@
       <c r="C30" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>39</v>
       </c>
@@ -2434,9 +2383,8 @@
       <c r="C31" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>19</v>
       </c>
@@ -2446,9 +2394,8 @@
       <c r="C32" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>8</v>
       </c>
@@ -2458,9 +2405,8 @@
       <c r="C33" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
@@ -2470,9 +2416,8 @@
       <c r="C34" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>53</v>
       </c>
@@ -2482,9 +2427,8 @@
       <c r="C35" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>205</v>
       </c>
@@ -2494,9 +2438,8 @@
       <c r="C36" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>45</v>
       </c>
@@ -2506,9 +2449,8 @@
       <c r="C37" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>207</v>
       </c>
@@ -2518,1403 +2460,1260 @@
       <c r="C38" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C39" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>225</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C40" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C41" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C42" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C44" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C51" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C52" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C53" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C54" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>133</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C55" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>121</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C56" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>131</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C57" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C58" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C59" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>223</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C60" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>259</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C61" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>294</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C62" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>292</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D63" s="16"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C63" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C64" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>229</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C66" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>231</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C67" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>302</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C68" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C69" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>233</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C70" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>218</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C71" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>282</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C72" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D73" s="16"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C73" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>306</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C74" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>308</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C75" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C76" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>311</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C77" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>310</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C78" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>312</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C79" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C80" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>296</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D81" s="16"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C81" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D82" s="11"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C82" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C83" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>235</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D84" s="16"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C84" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>237</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C85" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>148</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C86" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C87" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>334</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D88" s="16"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C88" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>313</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C89" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>265</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C90" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>267</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D91" s="16"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C91" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D92" s="11"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C92" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C93" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>239</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="16"/>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C94" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>315</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D95" s="16"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C95" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C96" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>271</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C97" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C98" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>241</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D99" s="16"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C99" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>263</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D100" s="16"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C100" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D101" s="11"/>
-    </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C101" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>317</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D102" s="16"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C102" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>243</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C103" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C104" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D104" s="16"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C104" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>328</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D105" s="16"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C105" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>284</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C106" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>245</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D107" s="11"/>
-    </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C107" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>247</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C108" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C108" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>319</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C109" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>321</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C110" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D110" s="16"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C110" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>322</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="C111" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C111" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>324</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D112" s="16"/>
-    </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C112" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D113" s="16"/>
-    </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C113" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>214</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D114" s="16"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C114" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D115" s="16"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C115" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D116" s="16"/>
-    </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C116" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>209</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C117" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C117" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C118" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D118" s="16"/>
-    </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C118" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>217</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D119" s="16"/>
-    </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C119" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>257</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D120" s="16"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C120" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D121" s="16"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C121" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>261</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D122" s="16"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C122" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>300</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C123" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>171</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D124" s="16"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C124" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D125" s="16"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C125" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>175</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C126" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C127" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D127" s="16"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C127" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C128" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D128" s="16"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C128" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>186</v>
       </c>
       <c r="B129" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C129" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B130" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" s="16"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C130" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D131" s="16"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C131" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C132" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C132" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>251</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C133" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" s="11"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C133" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>332</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D134" s="16"/>
-    </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C134" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C135" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" s="16"/>
-    </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C135" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>192</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C136" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C136" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>298</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D137" s="11"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C137" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>194</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C138" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D138" s="11"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C138" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>196</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C139" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D139" s="16"/>
-    </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C139" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C140" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D140" s="16"/>
-    </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C140" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>278</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D141" s="16"/>
-    </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C141" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>276</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D142" s="16"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C142" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>369</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D143" s="11"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>368</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D144" s="11"/>
-    </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>220</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D145" s="16"/>
-    </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C145" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>222</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D146" s="16"/>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C146" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D147" s="16"/>
-    </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C147" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>290</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D148" s="16"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C148" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>253</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D149" s="11"/>
-    </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C149" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>201</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C150" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D150" s="16"/>
-    </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C150" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>203</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C151" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D151" s="16"/>
-    </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C151" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>330</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="C152" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D152" s="16"/>
+      <c r="C152" s="16" t="s">
+        <v>479</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D152">
@@ -3951,7 +3750,7 @@
         <v>365</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3974,13 +3773,13 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -4296,7 +4095,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,7 +4199,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -4436,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -4472,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4542,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -4561,7 +4360,7 @@
         <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -4603,7 +4402,7 @@
         <v>349</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -4641,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -4658,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4785,7 +4584,7 @@
     </row>
     <row r="40" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>136</v>
@@ -4814,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -21217,7 +21016,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>2</v>
@@ -21255,13 +21054,13 @@
     </row>
     <row r="46" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E46" s="10">
         <v>5</v>
@@ -21275,7 +21074,7 @@
     </row>
     <row r="47" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>362</v>
@@ -21284,42 +21083,42 @@
         <v>363</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>363</v>
@@ -21336,10 +21135,10 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>336</v>
@@ -21355,13 +21154,13 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -21372,10 +21171,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -21389,13 +21188,13 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -21403,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -21416,13 +21215,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -21435,13 +21234,13 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -21450,11 +21249,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -21467,11 +21266,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>45</v>
@@ -21486,11 +21285,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>2</v>
@@ -21503,11 +21302,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>45</v>
@@ -21522,17 +21321,17 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -21541,30 +21340,30 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E64" s="10">
         <v>10</v>
@@ -21578,10 +21377,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -21589,32 +21388,32 @@
       <c r="F65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>427</v>
+      <c r="G65" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -21622,49 +21421,49 @@
       <c r="F67" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>427</v>
+      <c r="G67" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="E69" s="18" t="s">
-        <v>483</v>
+        <v>426</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="18" t="s">
-        <v>483</v>
+      <c r="G69" s="15" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -21672,18 +21471,18 @@
       <c r="F70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>427</v>
+      <c r="G70" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>123</v>
@@ -21691,10 +21490,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>6</v>
@@ -21702,18 +21501,18 @@
       <c r="F72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="18" t="s">
-        <v>427</v>
+      <c r="G72" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>125</v>
@@ -21721,30 +21520,30 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>483</v>
+        <v>420</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>478</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>480</v>
+      <c r="G74" s="15" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>6</v>
@@ -21753,12 +21552,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>44</v>
@@ -21766,10 +21565,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>6</v>
@@ -21778,29 +21577,29 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
@@ -21809,23 +21608,23 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="18" t="s">
-        <v>427</v>
+      <c r="G80" s="15" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>157</v>
@@ -21833,18 +21632,18 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -21855,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -21864,12 +21663,12 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -21892,17 +21691,17 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>125</v>
@@ -21915,11 +21714,11 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>125</v>
@@ -21932,11 +21731,11 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>125</v>
@@ -21949,11 +21748,11 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>125</v>
@@ -21966,11 +21765,11 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>125</v>
@@ -21983,11 +21782,11 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>125</v>
@@ -22000,11 +21799,11 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>125</v>
@@ -22017,11 +21816,11 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>125</v>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
   </bookViews>
   <sheets>
-    <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
-    <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
-    <sheet name="Template" sheetId="20" r:id="rId3"/>
-    <sheet name="TestCases1" sheetId="12" r:id="rId4"/>
+    <sheet name="TODO" sheetId="24" r:id="rId1"/>
+    <sheet name="KeywordList" sheetId="13" r:id="rId2"/>
+    <sheet name="FlagsList" sheetId="23" r:id="rId3"/>
+    <sheet name="Template" sheetId="20" r:id="rId4"/>
+    <sheet name="TestCases1" sheetId="12" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$C$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KeywordList!$A$1:$B$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$C$162</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="489">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1463,6 +1465,33 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Sub-Task</t>
+  </si>
+  <si>
+    <t>Read all sheets and store test cases in hashmap</t>
+  </si>
+  <si>
+    <t>Utils</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Implement and Understand extent report</t>
+  </si>
+  <si>
+    <t>Implement and Understand extent dashboard</t>
+  </si>
+  <si>
+    <t>Read all sheets and store test data in hashmap</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,6 +1577,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1640,9 +1677,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1666,6 +1700,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2026,7 +2063,1838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:J162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1">
+        <f>COUNTIF($A$2:$A$300,"*")</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF($C$2:$C$200,"Done")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF($C$2:C$300,"Pending")</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF($C$2:C$300,"In Progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C146" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C161" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C162"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2035,1689 +3903,1231 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="14"/>
-    <col min="5" max="5" width="11.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="27.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C89" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C99" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C104" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C105" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C106" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C108" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C120" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C123" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C125" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C132" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C133" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C135" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C143" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C144" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C146" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C148" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C149" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C150" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="11" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D152">
-    <sortCondition ref="C2:C152"/>
     <sortCondition ref="A2:A152"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3746,42 +5156,42 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3789,13 +5199,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3864,11 +5272,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -4340,7 +5748,7 @@
       <c r="F25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>471</v>
       </c>
       <c r="H25" s="6"/>
@@ -4359,7 +5767,7 @@
       <c r="F26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>472</v>
       </c>
       <c r="H26" s="6"/>
@@ -4439,7 +5847,7 @@
       <c r="F30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>471</v>
       </c>
       <c r="H30" s="6"/>
@@ -4456,7 +5864,7 @@
       <c r="F31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>474</v>
       </c>
       <c r="H31" s="6"/>
@@ -4612,7 +6020,7 @@
       <c r="F41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>375</v>
       </c>
       <c r="H41" s="6"/>
@@ -21062,7 +22470,7 @@
       <c r="C46" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>5</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -21201,7 +22609,7 @@
       <c r="F55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>471</v>
       </c>
       <c r="H55" s="6"/>
@@ -21220,7 +22628,7 @@
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>476</v>
       </c>
       <c r="H56" s="6"/>
@@ -21365,7 +22773,7 @@
       <c r="C64" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="9">
         <v>10</v>
       </c>
       <c r="F64" s="5" t="s">
@@ -21388,7 +22796,7 @@
       <c r="F65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -21421,7 +22829,7 @@
       <c r="F67" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -21448,13 +22856,13 @@
       <c r="B69" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="14" t="s">
         <v>478</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="14" t="s">
         <v>478</v>
       </c>
     </row>
@@ -21471,7 +22879,7 @@
       <c r="F70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -21501,7 +22909,7 @@
       <c r="F72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="14" t="s">
         <v>422</v>
       </c>
     </row>
@@ -21528,13 +22936,13 @@
       <c r="C74" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>478</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G74" s="14" t="s">
         <v>475</v>
       </c>
     </row>
@@ -21618,7 +23026,7 @@
       <c r="F80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="14" t="s">
         <v>422</v>
       </c>
     </row>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="490">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1492,6 +1492,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Method to replace variable from dicitionary</t>
   </si>
 </sst>
 </file>
@@ -2063,9 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2091,7 +2096,7 @@
       </c>
       <c r="J1">
         <f>COUNTIF($A$2:$A$300,"*")</f>
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,7 +2114,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF($C$2:$C$200,"Done")</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,7 +2132,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF($C$2:C$300,"Pending")</f>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3816,8 +3821,8 @@
       <c r="B156" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C156" s="15" t="s">
-        <v>479</v>
+      <c r="C156" s="11" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3884,6 +3889,17 @@
       </c>
       <c r="C162" s="15" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="24" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KeywordList!$A$1:$B$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$C$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$C$163</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2068,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,7 +3903,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C162"/>
+  <autoFilter ref="A1:C163"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5292,7 +5292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -1038,9 +1038,6 @@
     <t>Go to URL</t>
   </si>
   <si>
-    <t>Basic Script</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -1495,6 +1492,9 @@
   </si>
   <si>
     <t>Method to replace variable from dicitionary</t>
+  </si>
+  <si>
+    <t>Verify End to End Workflow #1</t>
   </si>
 </sst>
 </file>
@@ -2083,16 +2083,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>481</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J1">
         <f>COUNTIF($A$2:$A$300,"*")</f>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J2">
         <f>COUNTIF($C$2:$C$200,"Done")</f>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J3">
         <f>COUNTIF($C$2:C$300,"Pending")</f>
@@ -2143,10 +2143,10 @@
         <v>92</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J4">
         <f>COUNTIF($C$2:C$300,"In Progress")</f>
@@ -2161,7 +2161,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>113</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,7 +2205,7 @@
         <v>125</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,10 +2356,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>159</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>43</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>215</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>8</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2502,7 +2502,7 @@
         <v>56</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>205</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>207</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
         <v>135</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>225</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,10 +2598,10 @@
         <v>60</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>107</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>111</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,7 +2678,7 @@
         <v>115</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>119</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>133</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>131</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>129</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>223</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2799,7 +2799,7 @@
         <v>259</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>294</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2821,7 +2821,7 @@
         <v>292</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>138</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,7 +2843,7 @@
         <v>227</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>229</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>231</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,7 +2876,7 @@
         <v>302</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,7 +2887,7 @@
         <v>280</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>233</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>218</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>282</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>140</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>306</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>308</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>304</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>311</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>310</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>312</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>142</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3019,7 @@
         <v>296</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>144</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>146</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>235</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>237</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>148</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>150</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>334</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>313</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>265</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>267</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>153</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>155</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>239</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>315</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>269</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>271</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>161</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>241</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3228,7 +3228,7 @@
         <v>263</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3239,7 +3239,7 @@
         <v>179</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>317</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>243</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>326</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>328</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>284</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>245</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>247</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>319</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>321</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>322</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>324</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>212</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>214</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>166</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3404,7 +3404,7 @@
         <v>168</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>209</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>211</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>217</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>257</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>255</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>261</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>300</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
         <v>171</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>173</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>175</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>181</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>183</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>186</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>188</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,7 +3569,7 @@
         <v>190</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>249</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>251</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>332</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,7 +3613,7 @@
         <v>286</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>192</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3635,7 +3635,7 @@
         <v>298</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
         <v>194</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>196</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>198</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>278</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>276</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,10 +3698,10 @@
         <v>60</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +3709,10 @@
         <v>60</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>220</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>222</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>288</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>290</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3767,7 +3767,7 @@
         <v>253</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>201</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>203</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,106 +3800,106 @@
         <v>330</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>365</v>
-      </c>
       <c r="C155" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>485</v>
-      </c>
       <c r="C161" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3939,7 +3939,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,10 +4088,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +4147,7 @@
         <v>215</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,10 +4264,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,18 +5064,18 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>29</v>
@@ -5173,39 +5173,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -5345,7 +5345,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>337</v>
+        <v>489</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -5519,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -5659,7 +5659,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5695,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -5784,20 +5784,20 @@
         <v>56</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -5805,38 +5805,38 @@
         <v>215</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
@@ -5856,7 +5856,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -5864,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5873,7 +5873,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -5890,7 +5890,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -5898,20 +5898,20 @@
         <v>298</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -5921,15 +5921,15 @@
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
@@ -5945,7 +5945,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -5958,7 +5958,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -5971,7 +5971,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -5984,7 +5984,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -5997,7 +5997,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="40" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>136</v>
@@ -6037,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -22440,7 +22440,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>2</v>
@@ -22453,7 +22453,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -22478,13 +22478,13 @@
     </row>
     <row r="46" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="E46" s="9">
         <v>5</v>
@@ -22498,54 +22498,54 @@
     </row>
     <row r="47" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
@@ -22559,10 +22559,10 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>336</v>
@@ -22578,13 +22578,13 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -22595,10 +22595,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -22612,13 +22612,13 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -22639,13 +22639,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -22654,17 +22654,17 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -22673,11 +22673,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -22690,11 +22690,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>45</v>
@@ -22709,11 +22709,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>2</v>
@@ -22726,11 +22726,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>45</v>
@@ -22745,17 +22745,17 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -22764,30 +22764,30 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E64" s="9">
         <v>10</v>
@@ -22801,10 +22801,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -22813,31 +22813,31 @@
         <v>0</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -22846,48 +22846,48 @@
         <v>0</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -22896,17 +22896,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>123</v>
@@ -22914,10 +22914,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>6</v>
@@ -22926,17 +22926,17 @@
         <v>0</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>125</v>
@@ -22944,30 +22944,30 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>6</v>
@@ -22976,12 +22976,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>44</v>
@@ -22989,10 +22989,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>439</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>6</v>
@@ -23001,29 +23001,29 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
@@ -23032,23 +23032,23 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>157</v>
@@ -23056,18 +23056,18 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -23078,7 +23078,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -23087,12 +23087,12 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -23115,17 +23115,17 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>125</v>
@@ -23138,11 +23138,11 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>125</v>
@@ -23155,11 +23155,11 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>125</v>
@@ -23172,11 +23172,11 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>125</v>
@@ -23189,11 +23189,11 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>125</v>
@@ -23206,11 +23206,11 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>125</v>
@@ -23223,11 +23223,11 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>125</v>
@@ -23240,11 +23240,11 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>125</v>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -4,28 +4,26 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TODO" sheetId="24" r:id="rId1"/>
-    <sheet name="KeywordList" sheetId="13" r:id="rId2"/>
-    <sheet name="FlagsList" sheetId="23" r:id="rId3"/>
-    <sheet name="Template" sheetId="20" r:id="rId4"/>
-    <sheet name="TestCases1" sheetId="12" r:id="rId5"/>
+    <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
+    <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
+    <sheet name="Template" sheetId="20" r:id="rId3"/>
+    <sheet name="TestCases1" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KeywordList!$A$1:$B$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TODO!$A$1:$C$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$B$151</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="487">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1038,12 +1036,6 @@
     <t>Go to URL</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Run Java Script</t>
   </si>
   <si>
@@ -1263,24 +1255,9 @@
     <t>Test.Case.029</t>
   </si>
   <si>
-    <t>Test.Case.030</t>
-  </si>
-  <si>
-    <t>Test.Case.031</t>
-  </si>
-  <si>
     <t>verify keyword : assert=</t>
   </si>
   <si>
-    <t>Test.Case.032</t>
-  </si>
-  <si>
-    <t>Test.Case.034</t>
-  </si>
-  <si>
-    <t>Test.Case.033</t>
-  </si>
-  <si>
     <t>verify keyword : assertContains</t>
   </si>
   <si>
@@ -1305,12 +1282,6 @@
     <t>verify keyword : assertEqual</t>
   </si>
   <si>
-    <t>Test.Case.035</t>
-  </si>
-  <si>
-    <t>Test.Case.036</t>
-  </si>
-  <si>
     <t>verify keyword : assertNotPresent</t>
   </si>
   <si>
@@ -1323,24 +1294,15 @@
     <t>verify keyword : assertText</t>
   </si>
   <si>
-    <t>Test.Case.037</t>
-  </si>
-  <si>
     <t>http://www.htmlcodetutorial.com/forms/_INPUT_TYPE_CHECKBOX.html</t>
   </si>
   <si>
-    <t>Test.Case.038</t>
-  </si>
-  <si>
     <t>verify keyword : check</t>
   </si>
   <si>
     <t>xpath=//input[@type='CHECKBOX']</t>
   </si>
   <si>
-    <t>Test.Case.039</t>
-  </si>
-  <si>
     <t>verify keyword : getAttribute</t>
   </si>
   <si>
@@ -1353,9 +1315,6 @@
     <t>verify keywords : goBack, goForward, goTo</t>
   </si>
   <si>
-    <t>Test.Case.040</t>
-  </si>
-  <si>
     <t>{knownDefect=DEFECT-001}</t>
   </si>
   <si>
@@ -1377,9 +1336,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Bodgeit.Workflow</t>
-  </si>
-  <si>
     <t>Verify Home Page</t>
   </si>
   <si>
@@ -1461,40 +1417,73 @@
     <t>gaurav.khanna@dummy.com</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Sub-Task</t>
-  </si>
-  <si>
-    <t>Read all sheets and store test cases in hashmap</t>
-  </si>
-  <si>
-    <t>Utils</t>
-  </si>
-  <si>
-    <t>Reporting</t>
-  </si>
-  <si>
-    <t>Implement and Understand extent report</t>
-  </si>
-  <si>
-    <t>Implement and Understand extent dashboard</t>
-  </si>
-  <si>
-    <t>Read all sheets and store test data in hashmap</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Method to replace variable from dicitionary</t>
-  </si>
-  <si>
     <t>Verify End to End Workflow #1</t>
+  </si>
+  <si>
+    <t>Test.Case.004</t>
+  </si>
+  <si>
+    <t>Test.Case.005</t>
+  </si>
+  <si>
+    <t>Test.Case.006</t>
+  </si>
+  <si>
+    <t>Test.Case.007</t>
+  </si>
+  <si>
+    <t>Test.Case.008</t>
+  </si>
+  <si>
+    <t>Test.Case.015</t>
+  </si>
+  <si>
+    <t>Test.Case.014</t>
+  </si>
+  <si>
+    <t>Test.Case.016</t>
+  </si>
+  <si>
+    <t>Test.Case.017</t>
+  </si>
+  <si>
+    <t>Test.Case.018</t>
+  </si>
+  <si>
+    <t>Test.Case.019</t>
+  </si>
+  <si>
+    <t>Test.Case.020</t>
+  </si>
+  <si>
+    <t>Test.Case.021</t>
+  </si>
+  <si>
+    <t>Test.Case.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Top Rates movies on IMDB website </t>
+  </si>
+  <si>
+    <t>http://www.imdb.com/</t>
+  </si>
+  <si>
+    <t>Click on Movies menu</t>
+  </si>
+  <si>
+    <t>xpath=//a[text()='Top Rated Movies']</t>
+  </si>
+  <si>
+    <t>xpath=//h1[text()='Top Rated Movies']</t>
+  </si>
+  <si>
+    <t>Verify user is on Top Rated Movies page</t>
+  </si>
+  <si>
+    <t>Click on Top Rated Movies</t>
+  </si>
+  <si>
+    <t>xpath=//*[@class='downArrow']</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1493,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,20 +1540,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1584,16 +1559,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,16 +1577,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1652,14 +1609,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,39 +1635,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2066,1850 +2007,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J163"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="J1">
-        <f>COUNTIF($A$2:$A$300,"*")</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="J2">
-        <f>COUNTIF($C$2:$C$200,"Done")</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF($C$2:C$300,"Pending")</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="J4">
-        <f>COUNTIF($C$2:C$300,"In Progress")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B147" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C163"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3919,11 +2016,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
-    <col min="4" max="4" width="11.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="27.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +2036,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4088,10 +2185,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +2244,7 @@
         <v>215</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4264,10 +2361,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,18 +3161,18 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -5151,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5165,7 +3262,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>29</v>
@@ -5173,39 +3270,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B7" s="10"/>
     </row>
@@ -5215,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -5288,13 +3385,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD93"/>
+  <dimension ref="A1:XFD98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5345,7 +3442,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -5519,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,7 +3720,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -5659,7 +3756,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5695,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -5765,7 +3862,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -5784,20 +3881,20 @@
         <v>56</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -5805,38 +3902,38 @@
         <v>215</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>350</v>
+        <v>467</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
@@ -5856,7 +3953,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -5864,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5873,7 +3970,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -5881,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -5890,7 +3987,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -5898,20 +3995,20 @@
         <v>298</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -5921,15 +4018,15 @@
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
@@ -5945,7 +4042,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -5958,7 +4055,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -5971,7 +4068,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -5984,7 +4081,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -5997,7 +4094,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6008,7 +4105,7 @@
     </row>
     <row r="40" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>136</v>
@@ -6037,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -22440,7 +20537,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>2</v>
@@ -22453,7 +20550,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -22478,13 +20575,13 @@
     </row>
     <row r="46" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E46" s="9">
         <v>5</v>
@@ -22498,54 +20595,54 @@
     </row>
     <row r="47" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
@@ -22559,10 +20656,10 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>336</v>
@@ -22578,13 +20675,13 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -22595,10 +20692,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -22612,13 +20709,13 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -22626,7 +20723,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -22639,13 +20736,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -22654,17 +20751,17 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -22673,11 +20770,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -22690,11 +20787,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>45</v>
@@ -22709,11 +20806,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>2</v>
@@ -22726,11 +20823,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>45</v>
@@ -22745,17 +20842,17 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -22764,30 +20861,30 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E64" s="9">
         <v>10</v>
@@ -22801,10 +20898,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -22812,32 +20909,32 @@
       <c r="F65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>421</v>
+      <c r="G65" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -22845,49 +20942,49 @@
       <c r="F67" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>421</v>
+      <c r="G67" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>477</v>
+        <v>418</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>477</v>
+      <c r="G69" s="12" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -22895,18 +20992,18 @@
       <c r="F70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="14" t="s">
-        <v>421</v>
+      <c r="G70" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>123</v>
@@ -22914,10 +21011,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>6</v>
@@ -22925,18 +21022,18 @@
       <c r="F72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="14" t="s">
-        <v>421</v>
+      <c r="G72" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>125</v>
@@ -22944,30 +21041,30 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>477</v>
+        <v>412</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>474</v>
+      <c r="G74" s="12" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>6</v>
@@ -22976,12 +21073,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>44</v>
@@ -22989,10 +21086,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>6</v>
@@ -23001,29 +21098,29 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
@@ -23032,23 +21129,23 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G80" s="14" t="s">
-        <v>421</v>
+      <c r="G80" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>157</v>
@@ -23056,18 +21153,18 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -23078,7 +21175,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -23087,12 +21184,12 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="6" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -23115,17 +21212,17 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="6" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>125</v>
@@ -23138,11 +21235,11 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="6" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="6" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>125</v>
@@ -23155,11 +21252,11 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="6" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="6" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>125</v>
@@ -23172,11 +21269,11 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="6" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>125</v>
@@ -23189,11 +21286,11 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="6" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="6" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>125</v>
@@ -23206,11 +21303,11 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="6" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="6" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>125</v>
@@ -23223,11 +21320,11 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="6" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="6" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>125</v>
@@ -23240,11 +21337,11 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93" s="6" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="6" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>125</v>
@@ -23252,6 +21349,64 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/raftaar-core/assets/testcase.xlsx
+++ b/raftaar-core/assets/testcase.xlsx
@@ -10,7 +10,7 @@
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
     <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
     <sheet name="Template" sheetId="20" r:id="rId3"/>
-    <sheet name="TestCases1" sheetId="12" r:id="rId4"/>
+    <sheet name="TestSuite1" sheetId="12" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="490">
   <si>
     <t>openBrowser</t>
   </si>
@@ -1114,9 +1114,6 @@
     <t>{optional}</t>
   </si>
   <si>
-    <t>{nowait}</t>
-  </si>
-  <si>
     <t>{nolog}</t>
   </si>
   <si>
@@ -1135,9 +1132,6 @@
     <t>assertAll</t>
   </si>
   <si>
-    <t>{normalize}</t>
-  </si>
-  <si>
     <t>xpath=//button[@onclick='alertFunction()']</t>
   </si>
   <si>
@@ -1484,6 +1478,21 @@
   </si>
   <si>
     <t>xpath=//*[@class='downArrow']</t>
+  </si>
+  <si>
+    <t>This will skip the particular test step</t>
+  </si>
+  <si>
+    <t>This will not log step in report</t>
+  </si>
+  <si>
+    <t>Defect ID to be attached in test case</t>
+  </si>
+  <si>
+    <t>Test.Case.030</t>
+  </si>
+  <si>
+    <t>linkText=Home</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2045,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2185,10 +2194,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,10 +2370,10 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,18 +3170,18 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3250,7 +3259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3273,38 +3282,32 @@
         <v>362</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>428</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>487</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3387,11 +3390,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD98"/>
+  <dimension ref="A1:XFD102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3442,7 +3445,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -3616,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3720,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -3756,7 +3759,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -3792,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -3862,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -3881,14 +3884,14 @@
         <v>56</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>345</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>337</v>
@@ -3923,14 +3926,14 @@
         <v>346</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>349</v>
@@ -3961,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -3978,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -4002,7 +4005,7 @@
     </row>
     <row r="33" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>355</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="34" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>355</v>
@@ -4134,7 +4137,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -20537,7 +20540,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>2</v>
@@ -20550,7 +20553,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -20578,10 +20581,10 @@
         <v>344</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E46" s="9">
         <v>5</v>
@@ -20604,37 +20607,37 @@
         <v>360</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20659,7 +20662,7 @@
         <v>358</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>336</v>
@@ -20675,13 +20678,13 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -20692,10 +20695,10 @@
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>7</v>
@@ -20709,13 +20712,13 @@
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -20723,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -20736,13 +20739,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -20755,13 +20758,13 @@
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -20770,11 +20773,11 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>2</v>
@@ -20787,11 +20790,11 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>45</v>
@@ -20806,11 +20809,11 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>2</v>
@@ -20823,11 +20826,11 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>45</v>
@@ -20842,17 +20845,17 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -20861,30 +20864,30 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E64" s="9">
         <v>10</v>
@@ -20898,10 +20901,10 @@
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>6</v>
@@ -20910,31 +20913,31 @@
         <v>0</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>6</v>
@@ -20943,48 +20946,48 @@
         <v>0</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>113</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>6</v>
@@ -20993,17 +20996,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>123</v>
@@ -21011,10 +21014,10 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>6</v>
@@ -21023,17 +21026,17 @@
         <v>0</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>125</v>
@@ -21041,30 +21044,30 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>6</v>
@@ -21073,12 +21076,12 @@
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E76" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>44</v>
@@ -21086,10 +21089,10 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>6</v>
@@ -21098,29 +21101,29 @@
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>6</v>
@@ -21129,23 +21132,23 @@
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>159</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>157</v>
@@ -21153,18 +21156,18 @@
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -21175,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
@@ -21184,12 +21187,12 @@
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G84"/>
       <c r="H84"/>
@@ -21212,17 +21215,17 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D86"/>
       <c r="E86" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>125</v>
@@ -21235,11 +21238,11 @@
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D87"/>
       <c r="E87" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>125</v>
@@ -21252,11 +21255,11 @@
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>125</v>
@@ -21269,11 +21272,11 @@
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D89"/>
       <c r="E89" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>125</v>
@@ -21286,11 +21289,11 @@
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>125</v>
@@ -21303,11 +21306,11 @@
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D91"/>
       <c r="E91" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>125</v>
@@ -21320,11 +21323,11 @@
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D92"/>
       <c r="E92" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>125</v>
@@ -21337,11 +21340,11 @@
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D93"/>
       <c r="E93" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>125</v>
@@ -21352,10 +21355,10 @@
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>6</v>
@@ -21364,15 +21367,15 @@
         <v>0</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>2</v>
@@ -21380,33 +21383,97 @@
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
